--- a/data/output/FV2310_FV2304/REMADV/33002.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="236">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="236">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -847,6 +847,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U103" totalsRowShown="0">
+  <autoFilter ref="A1:U103"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1136,7 +1166,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5894,5 +5927,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/REMADV/33002.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="336">
   <si>
     <t>#</t>
   </si>
@@ -6143,9 +6143,7 @@
         <v>196</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>37</v>
       </c>
@@ -6226,44 +6224,42 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5" t="s">
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6291,9 +6287,7 @@
         <v>196</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>38</v>
       </c>
@@ -6318,44 +6312,42 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6383,9 +6375,7 @@
         <v>196</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>39</v>
       </c>
@@ -6435,9 +6425,7 @@
       <c r="K100" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L100" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>39</v>
       </c>
@@ -6462,44 +6450,42 @@
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M101" s="5" t="s">
+      <c r="K101" s="2"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5" t="s">
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5" t="s">
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="V101" s="5"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -6525,9 +6511,7 @@
         <v>196</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>40</v>
       </c>
@@ -6573,9 +6557,7 @@
         <v>196</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>40</v>
       </c>

--- a/data/output/FV2310_FV2304/REMADV/33002.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33002.xlsx
@@ -1602,7 +1602,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2746,7 +2746,7 @@
         <v>210</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4740,7 +4740,7 @@
         <v>214</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6068,23 +6068,23 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
       <c r="J93" s="6" t="s">
         <v>208</v>
       </c>
@@ -6094,20 +6094,20 @@
       <c r="L93" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O93" s="5" t="s">
+      <c r="O93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
       <c r="U93" s="6" t="s">
         <v>234</v>
       </c>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N96" s="2"/>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N98" s="2"/>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N101" s="2"/>
